--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12339,15 +12339,90 @@
         <v>30.523</v>
       </c>
       <c r="D476" t="n">
-        <v>30.668</v>
+        <v>30.798</v>
       </c>
       <c r="E476" t="n">
         <v>30.399</v>
       </c>
       <c r="F476" t="n">
-        <v>30.514</v>
+        <v>30.735</v>
       </c>
       <c r="G476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="D477" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="E477" t="n">
+        <v>30.508</v>
+      </c>
+      <c r="F477" t="n">
+        <v>30.666</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>30.664</v>
+      </c>
+      <c r="D478" t="n">
+        <v>31.199</v>
+      </c>
+      <c r="E478" t="n">
+        <v>30.567</v>
+      </c>
+      <c r="F478" t="n">
+        <v>31.142</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>31.143</v>
+      </c>
+      <c r="D479" t="n">
+        <v>31.383</v>
+      </c>
+      <c r="E479" t="n">
+        <v>31.067</v>
+      </c>
+      <c r="F479" t="n">
+        <v>31.261</v>
+      </c>
+      <c r="G479" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -12414,13 +12414,13 @@
         <v>31.143</v>
       </c>
       <c r="D479" t="n">
-        <v>31.383</v>
+        <v>31.421</v>
       </c>
       <c r="E479" t="n">
-        <v>31.067</v>
+        <v>30.844</v>
       </c>
       <c r="F479" t="n">
-        <v>31.261</v>
+        <v>31.019</v>
       </c>
       <c r="G479" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30592.33333333333</v>
+        <v>30592.375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>31138.33333333333</v>
+        <v>31138.375</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>31503.33333333333</v>
+        <v>31503.375</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31868.33333333333</v>
+        <v>31868.375</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>32234.33333333333</v>
+        <v>32234.375</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>32419.33333333333</v>
+        <v>32419.375</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32783.33333333334</v>
+        <v>32783.375</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>33329.33333333334</v>
+        <v>33329.375</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33665.33333333334</v>
+        <v>33665.375</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33695.33333333334</v>
+        <v>33695.375</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -12414,15 +12414,40 @@
         <v>31.143</v>
       </c>
       <c r="D479" t="n">
-        <v>31.421</v>
+        <v>31.486</v>
       </c>
       <c r="E479" t="n">
         <v>30.844</v>
       </c>
       <c r="F479" t="n">
-        <v>31.019</v>
+        <v>31.397</v>
       </c>
       <c r="G479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="D480" t="n">
+        <v>31.763</v>
+      </c>
+      <c r="E480" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="F480" t="n">
+        <v>31.649</v>
+      </c>
+      <c r="G480" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30592.375</v>
+        <v>30592.33333333333</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>31138.375</v>
+        <v>31138.33333333333</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>31503.375</v>
+        <v>31503.33333333333</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31868.375</v>
+        <v>31868.33333333333</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>32234.375</v>
+        <v>32234.33333333333</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>32419.375</v>
+        <v>32419.33333333333</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32783.375</v>
+        <v>32783.33333333334</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -12439,13 +12439,13 @@
         <v>31.46</v>
       </c>
       <c r="D480" t="n">
-        <v>31.763</v>
+        <v>32.015</v>
       </c>
       <c r="E480" t="n">
         <v>31.46</v>
       </c>
       <c r="F480" t="n">
-        <v>31.649</v>
+        <v>31.976</v>
       </c>
       <c r="G480" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -12445,7 +12445,7 @@
         <v>31.46</v>
       </c>
       <c r="F480" t="n">
-        <v>31.976</v>
+        <v>31.882</v>
       </c>
       <c r="G480" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12445,9 +12445,84 @@
         <v>31.46</v>
       </c>
       <c r="F480" t="n">
-        <v>31.882</v>
+        <v>31.841</v>
       </c>
       <c r="G480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>31.848</v>
+      </c>
+      <c r="D481" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="E481" t="n">
+        <v>31.815</v>
+      </c>
+      <c r="F481" t="n">
+        <v>32.227</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>32.227</v>
+      </c>
+      <c r="D482" t="n">
+        <v>32.504</v>
+      </c>
+      <c r="E482" t="n">
+        <v>32.001</v>
+      </c>
+      <c r="F482" t="n">
+        <v>32.455</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDTWD</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>32.437</v>
+      </c>
+      <c r="D483" t="n">
+        <v>32.491</v>
+      </c>
+      <c r="E483" t="n">
+        <v>32.095</v>
+      </c>
+      <c r="F483" t="n">
+        <v>32.243</v>
+      </c>
+      <c r="G483" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -12517,10 +12517,10 @@
         <v>32.491</v>
       </c>
       <c r="E483" t="n">
-        <v>32.095</v>
+        <v>31.675</v>
       </c>
       <c r="F483" t="n">
-        <v>32.243</v>
+        <v>31.675</v>
       </c>
       <c r="G483" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Taiwan_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11507,12 +11507,35 @@
         <v>32.491</v>
       </c>
       <c r="E483">
-        <v>31.294</v>
+        <v>31.182</v>
       </c>
       <c r="F483">
-        <v>31.576</v>
+        <v>31.358</v>
       </c>
       <c r="G483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484">
+        <v>31.337</v>
+      </c>
+      <c r="D484">
+        <v>31.568</v>
+      </c>
+      <c r="E484">
+        <v>31.281</v>
+      </c>
+      <c r="F484">
+        <v>31.519</v>
+      </c>
+      <c r="G484">
         <v>0</v>
       </c>
     </row>
